--- a/medicine/Psychotrope/Cannabis_en_Espagne/Cannabis_en_Espagne.xlsx
+++ b/medicine/Psychotrope/Cannabis_en_Espagne/Cannabis_en_Espagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Espagne, le Code pénal interdit la fabrication et le trafic de produits stupéfiants, ainsi que la culture de plantes permettant la fabrication de ces produits, mais il n’en interdit pas la consommation. 
 </t>
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi organique de 1992 sur la protection de la sécurité civile interdit la consommation ou la détention de cannabis dans des lieux publics.
 Ce dispositif traduit l’idée que la consommation de produits stupéfiants, même si elle constitue un danger pour l’usager, doit être tolérée aussi longtemps qu’elle relève de la vie privée et ne trouble pas l’ordre public. 
